--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H2">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I2">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J2">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>11.33241018324948</v>
+        <v>4223.234053386614</v>
       </c>
       <c r="R2">
-        <v>11.33241018324948</v>
+        <v>38009.10648047952</v>
       </c>
       <c r="S2">
-        <v>0.009459770245105229</v>
+        <v>0.06647561533705983</v>
       </c>
       <c r="T2">
-        <v>0.009459770245105229</v>
+        <v>0.06647561533705983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H3">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I3">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J3">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>289.6134079330703</v>
+        <v>32392.53096341923</v>
       </c>
       <c r="R3">
-        <v>289.6134079330703</v>
+        <v>291532.7786707731</v>
       </c>
       <c r="S3">
-        <v>0.241755836106102</v>
+        <v>0.5098730974645637</v>
       </c>
       <c r="T3">
-        <v>0.241755836106102</v>
+        <v>0.5098730974645637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H4">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I4">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J4">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>161.9438819968782</v>
+        <v>19851.39732713586</v>
       </c>
       <c r="R4">
-        <v>161.9438819968782</v>
+        <v>178662.5759442227</v>
       </c>
       <c r="S4">
-        <v>0.1351832391802488</v>
+        <v>0.3124699782063004</v>
       </c>
       <c r="T4">
-        <v>0.1351832391802488</v>
+        <v>0.3124699782063004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H5">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I5">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J5">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>48.09706364158458</v>
+        <v>5385.945165905569</v>
       </c>
       <c r="R5">
-        <v>48.09706364158458</v>
+        <v>48473.50649315012</v>
       </c>
       <c r="S5">
-        <v>0.04014919722779842</v>
+        <v>0.08477721446390778</v>
       </c>
       <c r="T5">
-        <v>0.04014919722779842</v>
+        <v>0.08477721446390778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H6">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I6">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J6">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>11.89244229122249</v>
+        <v>38.459602704056</v>
       </c>
       <c r="R6">
-        <v>11.89244229122249</v>
+        <v>346.136424336504</v>
       </c>
       <c r="S6">
-        <v>0.009927259065721462</v>
+        <v>0.0006053715524766649</v>
       </c>
       <c r="T6">
-        <v>0.009927259065721462</v>
+        <v>0.0006053715524766649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H7">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I7">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J7">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>303.9257037924053</v>
+        <v>294.988119456208</v>
       </c>
       <c r="R7">
-        <v>303.9257037924053</v>
+        <v>2654.893075105872</v>
       </c>
       <c r="S7">
-        <v>0.2537030766595195</v>
+        <v>0.004643246504950078</v>
       </c>
       <c r="T7">
-        <v>0.2537030766595195</v>
+        <v>0.004643246504950076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H8">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I8">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J8">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>169.9469256690972</v>
+        <v>180.780142580488</v>
       </c>
       <c r="R8">
-        <v>169.9469256690972</v>
+        <v>1627.021283224392</v>
       </c>
       <c r="S8">
-        <v>0.1418638087304614</v>
+        <v>0.00284556126107255</v>
       </c>
       <c r="T8">
-        <v>0.1418638087304614</v>
+        <v>0.00284556126107255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H9">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I9">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J9">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>50.47395430323068</v>
+        <v>49.048030170256</v>
       </c>
       <c r="R9">
-        <v>50.47395430323068</v>
+        <v>441.432271532304</v>
       </c>
       <c r="S9">
-        <v>0.04213331527447337</v>
+        <v>0.0007720381928687679</v>
       </c>
       <c r="T9">
-        <v>0.04213331527447337</v>
+        <v>0.0007720381928687679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.472219217564681</v>
+        <v>2.587116666666667</v>
       </c>
       <c r="H10">
-        <v>0.472219217564681</v>
+        <v>7.76135</v>
       </c>
       <c r="I10">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="J10">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>3.342870377899763</v>
+        <v>61.14856607339444</v>
       </c>
       <c r="R10">
-        <v>3.342870377899763</v>
+        <v>550.33709466055</v>
       </c>
       <c r="S10">
-        <v>0.002790473096432896</v>
+        <v>0.0009625061044031219</v>
       </c>
       <c r="T10">
-        <v>0.002790473096432896</v>
+        <v>0.000962506104403122</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.472219217564681</v>
+        <v>2.587116666666667</v>
       </c>
       <c r="H11">
-        <v>0.472219217564681</v>
+        <v>7.76135</v>
       </c>
       <c r="I11">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="J11">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>85.43108365889159</v>
+        <v>469.0142186916556</v>
       </c>
       <c r="R11">
-        <v>85.43108365889159</v>
+        <v>4221.127968224901</v>
       </c>
       <c r="S11">
-        <v>0.07131390499772269</v>
+        <v>0.007382496067049965</v>
       </c>
       <c r="T11">
-        <v>0.07131390499772269</v>
+        <v>0.007382496067049964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.472219217564681</v>
+        <v>2.587116666666667</v>
       </c>
       <c r="H12">
-        <v>0.472219217564681</v>
+        <v>7.76135</v>
       </c>
       <c r="I12">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="J12">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>47.77072107834955</v>
+        <v>287.4300750947389</v>
       </c>
       <c r="R12">
-        <v>47.77072107834955</v>
+        <v>2586.87067585265</v>
       </c>
       <c r="S12">
-        <v>0.03987678159692361</v>
+        <v>0.004524279466106809</v>
       </c>
       <c r="T12">
-        <v>0.03987678159692361</v>
+        <v>0.004524279466106809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.587116666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.76135</v>
+      </c>
+      <c r="I13">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="J13">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.14303933333333</v>
+      </c>
+      <c r="N13">
+        <v>90.42911799999999</v>
+      </c>
+      <c r="O13">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="P13">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="Q13">
+        <v>77.98355944325554</v>
+      </c>
+      <c r="R13">
+        <v>701.8520349892999</v>
+      </c>
+      <c r="S13">
+        <v>0.001227496519168181</v>
+      </c>
+      <c r="T13">
+        <v>0.001227496519168181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.631529</v>
+      </c>
+      <c r="H14">
+        <v>1.894587</v>
+      </c>
+      <c r="I14">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J14">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.63579766666667</v>
+      </c>
+      <c r="N14">
+        <v>70.907393</v>
+      </c>
+      <c r="O14">
+        <v>0.06827844587621175</v>
+      </c>
+      <c r="P14">
+        <v>0.06827844587621175</v>
+      </c>
+      <c r="Q14">
+        <v>14.92669166463233</v>
+      </c>
+      <c r="R14">
+        <v>134.340224981691</v>
+      </c>
+      <c r="S14">
+        <v>0.0002349528822721302</v>
+      </c>
+      <c r="T14">
+        <v>0.0002349528822721302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.631529</v>
+      </c>
+      <c r="H15">
+        <v>1.894587</v>
+      </c>
+      <c r="I15">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J15">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>181.2883913333334</v>
+      </c>
+      <c r="N15">
+        <v>543.865174</v>
+      </c>
+      <c r="O15">
+        <v>0.5237009467675041</v>
+      </c>
+      <c r="P15">
+        <v>0.523700946767504</v>
+      </c>
+      <c r="Q15">
+        <v>114.4888764903487</v>
+      </c>
+      <c r="R15">
+        <v>1030.399888413138</v>
+      </c>
+      <c r="S15">
+        <v>0.001802106730940364</v>
+      </c>
+      <c r="T15">
+        <v>0.001802106730940364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.472219217564681</v>
-      </c>
-      <c r="H13">
-        <v>0.472219217564681</v>
-      </c>
-      <c r="I13">
-        <v>0.1258244975105701</v>
-      </c>
-      <c r="J13">
-        <v>0.1258244975105701</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>30.0449964554177</v>
-      </c>
-      <c r="N13">
-        <v>30.0449964554177</v>
-      </c>
-      <c r="O13">
-        <v>0.0941258503217627</v>
-      </c>
-      <c r="P13">
-        <v>0.0941258503217627</v>
-      </c>
-      <c r="Q13">
-        <v>14.18782471791096</v>
-      </c>
-      <c r="R13">
-        <v>14.18782471791096</v>
-      </c>
-      <c r="S13">
-        <v>0.01184333781949092</v>
-      </c>
-      <c r="T13">
-        <v>0.01184333781949092</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.631529</v>
+      </c>
+      <c r="H16">
+        <v>1.894587</v>
+      </c>
+      <c r="I16">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J16">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>111.1005463333333</v>
+      </c>
+      <c r="N16">
+        <v>333.301639</v>
+      </c>
+      <c r="O16">
+        <v>0.3209442197221123</v>
+      </c>
+      <c r="P16">
+        <v>0.3209442197221123</v>
+      </c>
+      <c r="Q16">
+        <v>70.16321692534366</v>
+      </c>
+      <c r="R16">
+        <v>631.468952328093</v>
+      </c>
+      <c r="S16">
+        <v>0.001104400788632506</v>
+      </c>
+      <c r="T16">
+        <v>0.001104400788632506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.631529</v>
+      </c>
+      <c r="H17">
+        <v>1.894587</v>
+      </c>
+      <c r="I17">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J17">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.14303933333333</v>
+      </c>
+      <c r="N17">
+        <v>90.42911799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="P17">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="Q17">
+        <v>19.03620348714066</v>
+      </c>
+      <c r="R17">
+        <v>171.325831384266</v>
+      </c>
+      <c r="S17">
+        <v>0.0002996384582271494</v>
+      </c>
+      <c r="T17">
+        <v>0.0002996384582271494</v>
       </c>
     </row>
   </sheetData>
